--- a/Timecard.xlsx
+++ b/Timecard.xlsx
@@ -794,7 +794,7 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
